--- a/data.xlsx
+++ b/data.xlsx
@@ -399,7 +399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -445,6 +445,26 @@
       </c>
       <c r="B4" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ua1aa40149e47366e6b614488a560c3db</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Ufa9b574ba555573176a0f0c217def51f</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -484,6 +504,11 @@
           <t>密碼</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>45184518</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
